--- a/Thesis_Code_3/eucrites_kleine_2002.xlsx
+++ b/Thesis_Code_3/eucrites_kleine_2002.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/Desktop/thesis_plots/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Documents\Masters-Thesis-Code\Thesis_Code_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B46CF9-D52D-D449-A5E3-0EA25EBD3C02}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C61E050-8572-492F-AA45-6A261C66DF3D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12760" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{8741C88E-9BD2-F040-9CB8-5CFBDD82A19A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8741C88E-9BD2-F040-9CB8-5CFBDD82A19A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Juvinas-1</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>epsilon_W</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -427,15 +430,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6696A2CC-DA7A-B34C-BA4B-1FA944408072}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B10" sqref="B10:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -458,7 +461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -481,7 +484,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -504,7 +507,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -527,7 +530,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -550,7 +553,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -573,7 +576,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -596,7 +599,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -619,7 +622,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -640,6 +643,35 @@
       </c>
       <c r="G9">
         <v>21.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <f>AVERAGE(B2:B9)</f>
+        <v>55.722499999999997</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:G10" si="0">AVERAGE(C2:C9)</f>
+        <v>1268.4625000000001</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>26.237500000000001</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.86655512499999998</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.46707612500000001</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>21.675000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Thesis_Code_3/eucrites_kleine_2002.xlsx
+++ b/Thesis_Code_3/eucrites_kleine_2002.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Documents\Masters-Thesis-Code\Thesis_Code_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scotthull/Documents - Scott’s MacBook Pro/Graduate Research/Masters_Thesis_Code/Thesis_Code_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C61E050-8572-492F-AA45-6A261C66DF3D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8972496-4EA9-1A4D-906F-8603E836D2B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8741C88E-9BD2-F040-9CB8-5CFBDD82A19A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{8741C88E-9BD2-F040-9CB8-5CFBDD82A19A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Juvinas-1</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>calculated_terrestrial_standard</t>
+  </si>
+  <si>
+    <t>new_ep_182w</t>
   </si>
 </sst>
 </file>
@@ -430,15 +436,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6696A2CC-DA7A-B34C-BA4B-1FA944408072}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:G10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -460,8 +466,14 @@
       <c r="G1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -483,8 +495,16 @@
       <c r="G2">
         <v>23.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f>E2/((G2/(10^4))+1)</f>
+        <v>0.86467994253332259</v>
+      </c>
+      <c r="I2">
+        <f>((E2/0.8649)-1)*10^4</f>
+        <v>20.64978610243795</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -506,8 +526,16 @@
       <c r="G3">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <f t="shared" ref="H3:H9" si="0">E3/((G3/(10^4))+1)</f>
+        <v>0.86468087654173165</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I10" si="1">((E3/0.8649)-1)*10^4</f>
+        <v>18.661116892126905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -529,8 +557,16 @@
       <c r="G4">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.86467610527576988</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>13.007284079085135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -552,8 +588,16 @@
       <c r="G5">
         <v>24.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.86468111850440432</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>21.563186495547892</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -575,8 +619,16 @@
       <c r="G6">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.86468435224892792</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>24.499942189848412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -598,8 +650,16 @@
       <c r="G7">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.86468080007189874</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>11.56203029252012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -621,8 +681,16 @@
       <c r="G8">
         <v>26.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.86468323625628341</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>23.887154584345538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -644,8 +712,16 @@
       <c r="G9">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.86468099542996257</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>19.262342467336602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -654,27 +730,36 @@
         <v>55.722499999999997</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:G10" si="0">AVERAGE(C2:C9)</f>
+        <f t="shared" ref="C10:G10" si="2">AVERAGE(C2:C9)</f>
         <v>1268.4625000000001</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26.237500000000001</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.86655512499999998</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.46707612500000001</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21.675000000000001</v>
+      </c>
+      <c r="H10">
+        <f>E10/((G10/(10^4))+1)</f>
+        <v>0.86468092908620553</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>19.136605387906069</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>